--- a/TP03/Dataset_Full.xlsx
+++ b/TP03/Dataset_Full.xlsx
@@ -3892,10 +3892,8 @@
       <c r="F91" t="n">
         <v>53.8860103626943</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G91" t="n">
+        <v>3.076537575131531</v>
       </c>
       <c r="H91" t="n">
         <v>46.1139896373057</v>
